--- a/docs/Projects-Information.xlsx
+++ b/docs/Projects-Information.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markd\OneDrive - University of Guelph\Robotics Stuff\ugrt.github.io\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/delimam_uoguelph_ca/Documents/Robotics Stuff/ugrt.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C81EEF6-CB5B-47D7-A416-2756DAEBB15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D2FBCA91-74CD-4D43-8546-5A48645A73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53B2B5F-B801-4133-BE6F-33CB08000367}"/>
   <bookViews>
-    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Electrical" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Electrical</t>
   </si>
   <si>
-    <t>electrical</t>
-  </si>
-  <si>
     <t>The electrical team is responsible for creating the electrical system of the rover and interfacing it with the mechanical and programming teams</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>Mechanical</t>
   </si>
   <si>
-    <t>mechanical</t>
-  </si>
-  <si>
     <t>The mechanical team is responsible for creating the chassis of the rover as well as coordinating all the moving components.</t>
   </si>
   <si>
@@ -80,9 +75,6 @@
     <t>Programming</t>
   </si>
   <si>
-    <t>programming</t>
-  </si>
-  <si>
     <t>craxy, no?</t>
   </si>
   <si>
@@ -98,18 +90,49 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>marketing</t>
-  </si>
-  <si>
-    <t>The marketing team is required to create all the information we have available on the website. They go out and find sponsors as well as coordonate and manage our social medias.</t>
+    <r>
+      <t xml:space="preserve">The marketing team is required to create all the information we have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>available</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the website. They go out and find sponsors as well as coordonate and manage our social medias.</t>
+    </r>
+  </si>
+  <si>
+    <t>Project Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -479,7 +502,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,75 +526,180 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1" t="str">
+        <f>LOWER(A2)</f>
+        <v>electrical</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B5" si="0">LOWER(A3)</f>
+        <v>mechanical</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>programming</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>marketing</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75AA5DD-3E6F-47C8-950F-B05F77975122}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="26" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>LOWER(A2)</f>
+        <v>electrical</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B5" si="0">LOWER(A3)</f>
+        <v/>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Projects-Information.xlsx
+++ b/docs/Projects-Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/delimam_uoguelph_ca/Documents/Robotics Stuff/ugrt.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D2FBCA91-74CD-4D43-8546-5A48645A73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53B2B5F-B801-4133-BE6F-33CB08000367}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D2FBCA91-74CD-4D43-8546-5A48645A73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4235836A-7774-497A-A7D3-0CB1994829E5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
+    <workbookView xWindow="5600" yWindow="2170" windowWidth="16800" windowHeight="9670" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Title</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Project Title</t>
+  </si>
+  <si>
+    <t>/images/it in the hall.jpg</t>
   </si>
 </sst>
 </file>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CFC88-1D52-4579-843F-FBBB9CB93435}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">

--- a/docs/Projects-Information.xlsx
+++ b/docs/Projects-Information.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/delimam_uoguelph_ca/Documents/Robotics Stuff/ugrt.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D2FBCA91-74CD-4D43-8546-5A48645A73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4235836A-7774-497A-A7D3-0CB1994829E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2170" windowWidth="16800" windowHeight="9670" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId1"/>
     <sheet name="Electrical" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,18 +505,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CFC88-1D52-4579-843F-FBBB9CB93435}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="84">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -550,12 +551,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="70">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B5" si="0">LOWER(A3)</f>
+        <f>LOWER(A3)</f>
         <v>mechanical</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -568,12 +569,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>LOWER(A4)</f>
         <v>programming</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -586,12 +587,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="84">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>LOWER(A5)</f>
         <v>marketing</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -618,14 +619,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -642,7 +643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="84">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -660,9 +661,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="70">
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B5" si="0">LOWER(A3)</f>
+        <f>LOWER(A3)</f>
         <v/>
       </c>
       <c r="C3" s="1" t="s">
@@ -675,9 +676,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="28">
       <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>LOWER(A4)</f>
         <v/>
       </c>
       <c r="C4" s="1" t="s">
@@ -690,9 +691,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="84">
       <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>LOWER(A5)</f>
         <v/>
       </c>
       <c r="C5" s="1" t="s">
@@ -709,4 +710,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{be62a12b-2cad-49a1-a5fa-85f4f3156a7d}" enabled="0" method="" siteId="{be62a12b-2cad-49a1-a5fa-85f4f3156a7d}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/docs/Projects-Information.xlsx
+++ b/docs/Projects-Information.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/delimam_uoguelph_ca/Documents/Robotics Stuff/ugrt.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA5658A-9505-4B88-AC84-CA0B9DF6A3F6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
     <sheet name="Electrical" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
@@ -122,12 +121,48 @@
   <si>
     <t>/images/it in the hall.jpg</t>
   </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>Project 3</t>
+  </si>
+  <si>
+    <t>Project 4</t>
+  </si>
+  <si>
+    <t>This is project 1</t>
+  </si>
+  <si>
+    <t>This is project 2</t>
+  </si>
+  <si>
+    <t>This is project 3</t>
+  </si>
+  <si>
+    <t>This is project 4</t>
+  </si>
+  <si>
+    <t>big blurb for project 1</t>
+  </si>
+  <si>
+    <t>big blurb for project 2</t>
+  </si>
+  <si>
+    <t>big blurb for project 3</t>
+  </si>
+  <si>
+    <t>big blurb for project 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +174,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,18 +546,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CFC88-1D52-4579-843F-FBBB9CB93435}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="84">
+    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -551,7 +592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="70">
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -569,7 +610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -587,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="84">
+    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -615,18 +656,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75AA5DD-3E6F-47C8-950F-B05F77975122}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -643,70 +684,80 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="84">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>LOWER(A2)</f>
-        <v>electrical</v>
+        <v>project 1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="70">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B3" s="1" t="str">
         <f>LOWER(A3)</f>
-        <v/>
+        <v>project 2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="1" t="str">
         <f>LOWER(A4)</f>
-        <v/>
+        <v>project 3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="84">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" s="1" t="str">
         <f>LOWER(A5)</f>
-        <v/>
+        <v>project 4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Projects-Information.xlsx
+++ b/docs/Projects-Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/delimam_uoguelph_ca/Documents/Robotics Stuff/ugrt.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA5658A-9505-4B88-AC84-CA0B9DF6A3F6}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8BAD6DD-6046-4182-BA03-33447DD8A71E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
+    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
-  <si>
-    <t>Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>little title</t>
   </si>
@@ -90,32 +87,6 @@
     <t>Marketing</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The marketing team is required to create all the information we have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>available</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the website. They go out and find sponsors as well as coordonate and manage our social medias.</t>
-    </r>
-  </si>
-  <si>
     <t>Project Title</t>
   </si>
   <si>
@@ -156,22 +127,53 @@
   </si>
   <si>
     <t>big blurb for project 4</t>
+  </si>
+  <si>
+    <t>Project 5</t>
+  </si>
+  <si>
+    <t>This is project 5</t>
+  </si>
+  <si>
+    <t>big blurb for project 5</t>
+  </si>
+  <si>
+    <t>Project 6</t>
+  </si>
+  <si>
+    <t>This is project 6</t>
+  </si>
+  <si>
+    <t>big blurb for project 6</t>
+  </si>
+  <si>
+    <t>imgPath</t>
+  </si>
+  <si>
+    <t>subpageFn</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>littleTitle</t>
+  </si>
+  <si>
+    <t>littleBlurb</t>
+  </si>
+  <si>
+    <t>bigBlurb</t>
+  </si>
+  <si>
+    <t>The marketing team is required to create all the information we have available on the website. They go out and find sponsors as well as coordonate and manage our social medias.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -205,9 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,10 +549,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CFC88-1D52-4579-843F-FBBB9CB93435}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="26" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>LOWER(A2)</f>
+        <v>electrical</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>_xlfn.CONCAT(B2,"Projects")</f>
+        <v>electricalProjects</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>LOWER(A3)</f>
+        <v>mechanical</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F5" si="0">_xlfn.CONCAT(B3,"Projects")</f>
+        <v>mechanicalProjects</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>LOWER(A4)</f>
+        <v>programming</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>programmingProjects</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>LOWER(A5)</f>
+        <v>marketing</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>marketingProjects</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75AA5DD-3E6F-47C8-950F-B05F77975122}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,205 +693,131 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>LOWER(A2)</f>
-        <v>electrical</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f>LOWER(A3)</f>
-        <v>mechanical</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>LOWER(A4)</f>
-        <v>programming</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f>LOWER(A5)</f>
-        <v>marketing</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75AA5DD-3E6F-47C8-950F-B05F77975122}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="26" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>LOWER(A2)</f>
+        <f t="shared" ref="B2:B7" si="0">LOWER(A2)</f>
         <v>project 1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>LOWER(A3)</f>
+        <f t="shared" si="0"/>
         <v>project 2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>LOWER(A4)</f>
+        <f t="shared" si="0"/>
         <v>project 3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>LOWER(A5)</f>
+        <f t="shared" si="0"/>
         <v>project 4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>project 5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>project 6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Projects-Information.xlsx
+++ b/docs/Projects-Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/delimam_uoguelph_ca/Documents/Robotics Stuff/ugrt.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8BAD6DD-6046-4182-BA03-33447DD8A71E}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EFF742-934E-4690-9BA9-4AF65C94C126}"/>
   <bookViews>
-    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
+    <workbookView xWindow="-3560" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
-  <si>
-    <t>little title</t>
-  </si>
-  <si>
-    <t>Little Blurb</t>
-  </si>
-  <si>
-    <t>BIG BLURB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Electrical</t>
   </si>
@@ -78,18 +69,12 @@
     <t>Lets see if me updating this changes the shit…</t>
   </si>
   <si>
-    <t>Image path</t>
-  </si>
-  <si>
     <t xml:space="preserve">url_for('static',filename='it in the hall.jpg') </t>
   </si>
   <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>Project Title</t>
-  </si>
-  <si>
     <t>/images/it in the hall.jpg</t>
   </si>
   <si>
@@ -166,12 +151,21 @@
   </si>
   <si>
     <t>The marketing team is required to create all the information we have available on the website. They go out and find sponsors as well as coordonate and manage our social medias.</t>
+  </si>
+  <si>
+    <t>thinkg</t>
+  </si>
+  <si>
+    <t>bigBlurb2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;/images&quot;\+"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,9 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,6 +222,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CFC88-1D52-4579-843F-FBBB9CB93435}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,110 +558,113 @@
     <col min="3" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>LOWER(A2)</f>
         <v>electrical</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,"Projects")</f>
         <v>electricalProjects</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>LOWER(A3)</f>
         <v>mechanical</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G5" si="0">_xlfn.CONCAT(B3,"Projects")</f>
+        <v>mechanicalProjects</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F5" si="0">_xlfn.CONCAT(B3,"Projects")</f>
-        <v>mechanicalProjects</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>LOWER(A4)</f>
         <v>programming</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="str">
+      <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>programmingProjects</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>LOWER(A5)</f>
         <v>marketing</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="str">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>marketingProjects</v>
       </c>
@@ -678,10 +677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75AA5DD-3E6F-47C8-950F-B05F77975122}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,129 +690,166 @@
     <col min="3" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>Projects!A$1</f>
+        <v>title</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>Projects!B$1</f>
+        <v>littleTitle</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>Projects!C$1</f>
+        <v>littleBlurb</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>Projects!D$1</f>
+        <v>bigBlurb</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>Projects!E$1</f>
+        <v>bigBlurb2</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>Projects!F$1</f>
+        <v>imgPath</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>Projects!G$1</f>
+        <v>subpageFn</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B7" si="0">LOWER(A2)</f>
         <v>project 1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>_xlfn.CONCAT(LOWER($E$1), " for ",B2)</f>
+        <v>bigblurb2 for project 1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E7" si="1">_xlfn.CONCAT(LOWER($E$1), " for ",B3)</f>
+        <v>bigblurb2 for project 2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>bigblurb2 for project 3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>bigblurb2 for project 4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>bigblurb2 for project 5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>bigblurb2 for project 6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Projects-Information.xlsx
+++ b/docs/Projects-Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/delimam_uoguelph_ca/Documents/Robotics Stuff/ugrt.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EFF742-934E-4690-9BA9-4AF65C94C126}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{479BD6A4-6BBC-427A-9470-0DE38B9D4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52030137-C79D-4B27-B40E-37327F31ACAB}"/>
   <bookViews>
-    <workbookView xWindow="-3560" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{850585D9-EA53-420A-A917-69AE9798DAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -78,12 +78,6 @@
     <t>/images/it in the hall.jpg</t>
   </si>
   <si>
-    <t>Project 1</t>
-  </si>
-  <si>
-    <t>Project 2</t>
-  </si>
-  <si>
     <t>Project 3</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>bigBlurb2</t>
+  </si>
+  <si>
+    <t>Project1</t>
+  </si>
+  <si>
+    <t>Project2</t>
   </si>
 </sst>
 </file>
@@ -222,10 +222,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CFC88-1D52-4579-843F-FBBB9CB93435}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -560,25 +556,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
@@ -596,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,"Projects")</f>
@@ -656,7 +652,7 @@
         <v>marketing</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -679,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75AA5DD-3E6F-47C8-950F-B05F77975122}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,21 +718,21 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B7" si="0">LOWER(A2)</f>
-        <v>project 1</v>
+        <f>LOWER(A2)</f>
+        <v>project1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>_xlfn.CONCAT(LOWER($E$1), " for ",B2)</f>
-        <v>bigblurb2 for project 1</v>
+        <v>bigblurb2 for project1</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -744,21 +740,21 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>project 2</v>
+        <f t="shared" ref="B2:B7" si="0">LOWER(A3)</f>
+        <v>project2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E7" si="1">_xlfn.CONCAT(LOWER($E$1), " for ",B3)</f>
-        <v>bigblurb2 for project 2</v>
+        <v>bigblurb2 for project2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -766,17 +762,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -788,17 +784,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -810,17 +806,17 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -832,17 +828,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>project 6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="1"/>
